--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -397,85 +397,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="20.83203125" customWidth="1"/>
-    <col min="16" max="16" width="36.83203125" customWidth="1"/>
-    <col min="17" max="17" width="18.83203125" customWidth="1"/>
-    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Type</v>
+        <v>type</v>
       </c>
       <c r="B1" t="str">
-        <v>Description</v>
+        <v>description</v>
       </c>
       <c r="C1" t="str">
-        <v>Tran Date</v>
+        <v>date</v>
       </c>
       <c r="D1" t="str">
-        <v>Date Paid</v>
+        <v>amount</v>
       </c>
       <c r="E1" t="str">
-        <v>Date Credited</v>
+        <v>currency</v>
       </c>
       <c r="F1" t="str">
-        <v>Check Number</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Amount</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Reference Number</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Account Holder Name</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Account Number</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Transaction Category</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Running Balance</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Transaction Fee</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Currency</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Transaction Status</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Vendor or Payee Information</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Tax-related Data</v>
-      </c>
-      <c r="R1" t="str">
-        <v>Notes/Comments</v>
+        <v>category</v>
       </c>
     </row>
     <row r="2">
@@ -483,179 +435,104 @@
         <v>Deposit</v>
       </c>
       <c r="B2" t="str">
-        <v>Deposit</v>
+        <v>Deposit Refer: 130012345</v>
+      </c>
+      <c r="C2" t="str">
+        <v>June 5, 2003</v>
+      </c>
+      <c r="D2">
+        <v>3615.08</v>
       </c>
       <c r="E2" t="str">
-        <v>05-15</v>
-      </c>
-      <c r="G2">
-        <v>3615.08</v>
-      </c>
-      <c r="H2" t="str">
-        <v>130012345</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Jane Customer</v>
-      </c>
-      <c r="J2" t="str">
-        <v>000009752</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Deposits &amp; Other Credits</v>
-      </c>
-      <c r="N2" t="str">
         <v>USD</v>
       </c>
-      <c r="O2" t="str">
-        <v>Cleared</v>
+      <c r="F2" t="str">
+        <v>Income</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Withdrawal</v>
+        <v>ATM Withdrawal</v>
       </c>
       <c r="B3" t="str">
-        <v>ATM Withdrawal</v>
+        <v>ATM Withdrawal 1000 Walnut St</v>
       </c>
       <c r="C3" t="str">
-        <v>05-18</v>
-      </c>
-      <c r="D3" t="str">
-        <v>05-19</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3" t="str">
-        <v>000056789</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Jane Customer</v>
-      </c>
-      <c r="J3" t="str">
-        <v>000009752</v>
-      </c>
-      <c r="K3" t="str">
-        <v>ATM Withdrawals &amp; Debits</v>
-      </c>
-      <c r="N3" t="str">
+        <v>May 18, 2003</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3" t="str">
         <v>USD</v>
       </c>
-      <c r="O3" t="str">
-        <v>Cleared</v>
-      </c>
-      <c r="P3" t="str">
-        <v>1000 Walnut St M119 Kansas City MO</v>
+      <c r="F3" t="str">
+        <v>Expense</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Check</v>
+        <v>Check Payment</v>
       </c>
       <c r="B4" t="str">
-        <v>Check Paid</v>
-      </c>
-      <c r="D4" t="str">
-        <v>05-12</v>
+        <v>Check Number: 1001</v>
+      </c>
+      <c r="C4" t="str">
+        <v>May 12, 2003</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4" t="str">
+        <v>USD</v>
       </c>
       <c r="F4" t="str">
-        <v>1001</v>
-      </c>
-      <c r="G4">
-        <v>75</v>
-      </c>
-      <c r="H4" t="str">
-        <v>00012576589</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Jane Customer</v>
-      </c>
-      <c r="J4" t="str">
-        <v>000009752</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Checks Paid</v>
-      </c>
-      <c r="N4" t="str">
-        <v>USD</v>
-      </c>
-      <c r="O4" t="str">
-        <v>Cleared</v>
+        <v>Expense</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Check</v>
+        <v>Check Payment</v>
       </c>
       <c r="B5" t="str">
-        <v>Check Paid</v>
-      </c>
-      <c r="D5" t="str">
-        <v>05-18</v>
+        <v>Check Number: 1002</v>
+      </c>
+      <c r="C5" t="str">
+        <v>May 18, 2003</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5" t="str">
+        <v>USD</v>
       </c>
       <c r="F5" t="str">
-        <v>1002</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5" t="str">
-        <v>00036547854</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Jane Customer</v>
-      </c>
-      <c r="J5" t="str">
-        <v>000009752</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Checks Paid</v>
-      </c>
-      <c r="N5" t="str">
-        <v>USD</v>
-      </c>
-      <c r="O5" t="str">
-        <v>Cleared</v>
+        <v>Expense</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Check</v>
+        <v>Check Payment</v>
       </c>
       <c r="B6" t="str">
-        <v>Check Paid</v>
-      </c>
-      <c r="D6" t="str">
-        <v>05-24</v>
+        <v>Check Number: 1003</v>
+      </c>
+      <c r="C6" t="str">
+        <v>May 24, 2003</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6" t="str">
+        <v>USD</v>
       </c>
       <c r="F6" t="str">
-        <v>1003</v>
-      </c>
-      <c r="G6">
-        <v>200</v>
-      </c>
-      <c r="H6" t="str">
-        <v>00094613457</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Jane Customer</v>
-      </c>
-      <c r="J6" t="str">
-        <v>000009752</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Checks Paid</v>
-      </c>
-      <c r="N6" t="str">
-        <v>USD</v>
-      </c>
-      <c r="O6" t="str">
-        <v>Cleared</v>
+        <v>Expense</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -403,11 +403,11 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -435,10 +435,10 @@
         <v>Deposit</v>
       </c>
       <c r="B2" t="str">
-        <v>Deposit Refer: 130012345</v>
+        <v>DepositRef Nbr: 130012345</v>
       </c>
       <c r="C2" t="str">
-        <v>June 5, 2003</v>
+        <v>05-15</v>
       </c>
       <c r="D2">
         <v>3615.08</v>
@@ -447,7 +447,7 @@
         <v>USD</v>
       </c>
       <c r="F2" t="str">
-        <v>Income</v>
+        <v>Deposits &amp; Other Credits</v>
       </c>
     </row>
     <row r="3">
@@ -455,30 +455,30 @@
         <v>ATM Withdrawal</v>
       </c>
       <c r="B3" t="str">
-        <v>ATM Withdrawal 1000 Walnut St</v>
+        <v>ATM Withdrawal 1000 Walnut St M119 Kansas City MO 00005678</v>
       </c>
       <c r="C3" t="str">
-        <v>May 18, 2003</v>
+        <v>05-18</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E3" t="str">
         <v>USD</v>
       </c>
       <c r="F3" t="str">
-        <v>Expense</v>
+        <v>ATM Withdrawals &amp; Debits</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Check Payment</v>
+        <v>Check Paid</v>
       </c>
       <c r="B4" t="str">
         <v>Check Number: 1001</v>
       </c>
       <c r="C4" t="str">
-        <v>May 12, 2003</v>
+        <v>05-12</v>
       </c>
       <c r="D4">
         <v>75</v>
@@ -487,38 +487,38 @@
         <v>USD</v>
       </c>
       <c r="F4" t="str">
-        <v>Expense</v>
+        <v>Checks Paid</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Check Payment</v>
+        <v>Check Paid</v>
       </c>
       <c r="B5" t="str">
         <v>Check Number: 1002</v>
       </c>
       <c r="C5" t="str">
-        <v>May 18, 2003</v>
+        <v>05-18</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="E5" t="str">
         <v>USD</v>
       </c>
       <c r="F5" t="str">
-        <v>Expense</v>
+        <v>Checks Paid</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Check Payment</v>
+        <v>Check Paid</v>
       </c>
       <c r="B6" t="str">
         <v>Check Number: 1003</v>
       </c>
       <c r="C6" t="str">
-        <v>May 24, 2003</v>
+        <v>05-24</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -527,7 +527,7 @@
         <v>USD</v>
       </c>
       <c r="F6" t="str">
-        <v>Expense</v>
+        <v>Checks Paid</v>
       </c>
     </row>
   </sheetData>

--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -397,17 +397,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="60.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="130.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -432,107 +432,3567 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Deposit</v>
+        <v>debit</v>
       </c>
       <c r="B2" t="str">
-        <v>DepositRef Nbr: 130012345</v>
+        <v>HUMO Межбанковский расчет - Оплата на сумму 1,700.00 ПК 98603501******8858 ATTOTRANSPORT TOLOV, RRN 907009787651</v>
       </c>
       <c r="C2" t="str">
-        <v>05-15</v>
+        <v>2025-03-11</v>
       </c>
       <c r="D2">
-        <v>3615.08</v>
+        <v>1700</v>
       </c>
       <c r="E2" t="str">
-        <v>USD</v>
+        <v>UZS</v>
       </c>
       <c r="F2" t="str">
-        <v>Deposits &amp; Other Credits</v>
+        <v>Transportation</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ATM Withdrawal</v>
+        <v>debit</v>
       </c>
       <c r="B3" t="str">
-        <v>ATM Withdrawal 1000 Walnut St M119 Kansas City MO 00005678</v>
+        <v>HUMO Межбанковский расчет - Оплата на сумму 14,500.00 ПК 98603501******8858 YandexGO Taxi UB OPLATA, RRN506912831047</v>
       </c>
       <c r="C3" t="str">
-        <v>05-18</v>
+        <v>2025-03-11</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>14500</v>
       </c>
       <c r="E3" t="str">
-        <v>USD</v>
+        <v>UZS</v>
       </c>
       <c r="F3" t="str">
-        <v>ATM Withdrawals &amp; Debits</v>
+        <v>Transportation</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Check Paid</v>
+        <v>debit</v>
       </c>
       <c r="B4" t="str">
-        <v>Check Number: 1001</v>
+        <v>HUMO Межбанковский расчет - Оплата на сумму 12,000.00 ПК 98603501******8858 YATT ADILOV FATXULLA, RRN506717732037</v>
       </c>
       <c r="C4" t="str">
-        <v>05-12</v>
+        <v>2025-03-11</v>
       </c>
       <c r="D4">
-        <v>75</v>
+        <v>12000</v>
       </c>
       <c r="E4" t="str">
-        <v>USD</v>
+        <v>UZS</v>
       </c>
       <c r="F4" t="str">
-        <v>Checks Paid</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Check Paid</v>
+        <v>debit</v>
       </c>
       <c r="B5" t="str">
-        <v>Check Number: 1002</v>
+        <v>HUMO Межбанковский расчет - Оплата на сумму 9,000.00 ПК 98603501******8858 TURAPOV BAXTIYAR MARIFOVICH, RRN506814569678</v>
       </c>
       <c r="C5" t="str">
-        <v>05-18</v>
+        <v>2025-03-11</v>
       </c>
       <c r="D5">
-        <v>230</v>
+        <v>9000</v>
       </c>
       <c r="E5" t="str">
-        <v>USD</v>
+        <v>UZS</v>
       </c>
       <c r="F5" t="str">
-        <v>Checks Paid</v>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Check Paid</v>
+        <v>debit</v>
       </c>
       <c r="B6" t="str">
-        <v>Check Number: 1003</v>
+        <v>HUMO Межбанковский расчет - Оплата на сумму 100,000.00 ПК 98603501******8858 OOO TOTAL OIL, RRN 506901566</v>
       </c>
       <c r="C6" t="str">
-        <v>05-24</v>
+        <v>2025-03-11</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="E6" t="str">
-        <v>USD</v>
+        <v>UZS</v>
       </c>
       <c r="F6" t="str">
-        <v>Checks Paid</v>
+        <v>Unknown</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>debit</v>
+      </c>
+      <c r="B7" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 1,700.00 ПК 98603501******8858 ATTOTRANSPORT TOLOV, RRN 906620998025</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2025-03-08</v>
+      </c>
+      <c r="D7">
+        <v>1700</v>
+      </c>
+      <c r="E7" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Transportation</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>debit</v>
+      </c>
+      <c r="B8" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 34,500.00 ПК 98603501******8858 YandexGO Taxi UB OPLATA, RRN506708948895</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2025-03-09</v>
+      </c>
+      <c r="D8">
+        <v>34500</v>
+      </c>
+      <c r="E8" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Transportation</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>debit</v>
+      </c>
+      <c r="B9" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 141,900.00 ПК 98603501******8858 UZUM CHECKOUT OOO UZUM, RRN506619729095</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2025-03-09</v>
+      </c>
+      <c r="D9">
+        <v>141900</v>
+      </c>
+      <c r="E9" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Unknown</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>debit</v>
+      </c>
+      <c r="B10" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 7,000.00 ПК 98603501******8858 TURAPOV BAXTIYAR MARIFOVICH, RRN506814583727</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2025-03-11</v>
+      </c>
+      <c r="D10">
+        <v>7000</v>
+      </c>
+      <c r="E10" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Unknown</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B11" t="str">
+        <v>YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2025-03-09 20:50:29</v>
+      </c>
+      <c r="D11">
+        <v>45500</v>
+      </c>
+      <c r="E11" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F11" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Humo to Visa</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2025-03-11 17:37:09</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F12" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>deposit</v>
+      </c>
+      <c r="B13" t="str">
+        <v>PAYNET P2P UZC2HUM</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2025-03-12 18:58:09</v>
+      </c>
+      <c r="D13">
+        <v>180000</v>
+      </c>
+      <c r="E13" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F13" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B14" t="str">
+        <v>alifmobiuz payment to prov</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2025-03-12 20:46:36</v>
+      </c>
+      <c r="D14">
+        <v>1700</v>
+      </c>
+      <c r="E14" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F14" t="str">
+        <v>bill payment</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B15" t="str">
+        <v>ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2025-03-12 18:10:14</v>
+      </c>
+      <c r="D15">
+        <v>1700</v>
+      </c>
+      <c r="E15" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F15" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B16" t="str">
+        <v>ATTOTRANSPORT TOLOV</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2025-03-12 18:22:29</v>
+      </c>
+      <c r="D16">
+        <v>1010</v>
+      </c>
+      <c r="E16" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F16" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B17" t="str">
+        <v>alifmobiuzpayment to prov</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2025-03-12 17:59:26</v>
+      </c>
+      <c r="D17">
+        <v>20000</v>
+      </c>
+      <c r="E17" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F17" t="str">
+        <v>bill payment</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B18" t="str">
+        <v>PAYME OPLATA</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2025-03-12 18:21:11</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F18" t="str">
+        <v>bill payment</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>expense</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Расход наличными</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2025-03-12 19:04:18</v>
+      </c>
+      <c r="D19">
+        <v>20200</v>
+      </c>
+      <c r="E19" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F19" t="str">
+        <v>cash withdrawal</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B20" t="str">
+        <v>ATTOTRANSPORT TOLOV</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2025-03-12 18:34:11</v>
+      </c>
+      <c r="D20">
+        <v>52520</v>
+      </c>
+      <c r="E20" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F20" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B21" t="str">
+        <v>ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2025-03-13 17:57:17</v>
+      </c>
+      <c r="D21">
+        <v>15150</v>
+      </c>
+      <c r="E21" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F21" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B22" t="str">
+        <v>ATTOTRANSPORT TOLOV</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2025-03-13 18:06:11</v>
+      </c>
+      <c r="D22">
+        <v>1700</v>
+      </c>
+      <c r="E22" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F22" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Оплата на сумму 2,020.00 ПК 98603501******8858 МФО 01180, RRN 50710739419520816000600000002806011801890000</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2025-03-13 11:55:36</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F23" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Оплата на сумму 189,000.00 ПК 98603501******8858 YATTTALIPOV SOBIT ALIMOVIC, RRN 507108710152208160006000000028060118017000</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2025-03-13 12:29:06</v>
+      </c>
+      <c r="D24">
+        <v>189000</v>
+      </c>
+      <c r="E24" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F24" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV, RRN907119176228208160006000000028060118017000</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2025-03-13 19:20:16</v>
+      </c>
+      <c r="D25">
+        <v>1700</v>
+      </c>
+      <c r="E25" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F25" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV, RRN907214366134208160006000000028060118011000000</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2025-03-13 14:00:51</v>
+      </c>
+      <c r="D26">
+        <v>1700</v>
+      </c>
+      <c r="E26" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F26" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Оплата на сумму 1,100,000.00 ПК98603501******8858 ANORBANK HUMO BPC, RRN 5071112751262081600060000000280601180140000</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2025-03-13 12:04:10</v>
+      </c>
+      <c r="D27">
+        <v>1100000</v>
+      </c>
+      <c r="E27" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F27" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Оплата на сумму 14,000.00 ПК98603501******8858 YATT ADILOV FATXULLA, RRN507115361914208160006000000028060118040000</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2025-03-13 20:38:15</v>
+      </c>
+      <c r="D28">
+        <v>14000</v>
+      </c>
+      <c r="E28" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F28" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Оплата на сумму 4,000.00 ПК98603501******8858 YATT ADILOV FATXULLA, RRN5071153734792081600040000000280501180202000</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2025-03-13 20:39:19</v>
+      </c>
+      <c r="D29">
+        <v>4000</v>
+      </c>
+      <c r="E29" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F29" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>expense</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Расход наличными 20,200.00 сум ПК98603501******8858 МФО 01180, RRN 5071151677082989600090000118044801180040000</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2025-03-13 20:21:05</v>
+      </c>
+      <c r="D30">
+        <v>20200</v>
+      </c>
+      <c r="E30" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F30" t="str">
+        <v>cash withdrawal</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>peer-to-peer</v>
+      </c>
+      <c r="B31" t="str">
+        <v>П2П на сумму 40,000.00 ПК 98603501******8858 01180, RRN 507107388273231060008049242750010118003715575.15</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2025-03-13 18:53:39</v>
+      </c>
+      <c r="D31">
+        <v>40000</v>
+      </c>
+      <c r="E31" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F31" t="str">
+        <v>peer-to-peer transfer</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Пополнение на сумму 20,000.00 ПК 98603501******8858 МФО PAYME P2PUZCARD NA HUMO, RRN 5071159317581051300070000118040001180042000</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2025-03-13 20:01:31</v>
+      </c>
+      <c r="D32">
+        <v>20000</v>
+      </c>
+      <c r="E32" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F32" t="str">
+        <v>top-up</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>peer-to-peer</v>
+      </c>
+      <c r="B33" t="str">
+        <v>П2П на сумму 42,000.00 ПК98603501******8858 01180, RRN 507108295172105110009000011804000118001300000</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2025-03-13 13:57:15</v>
+      </c>
+      <c r="D33">
+        <v>42000</v>
+      </c>
+      <c r="E33" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F33" t="str">
+        <v>peer-to-peer transfer</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Пополнение на сумму 1,300,000.00 ПК98603501******8858 alifmobiuz u2h, RRN 507110733892208160006000000028060118017000</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2025-03-14 12:04:22</v>
+      </c>
+      <c r="D34">
+        <v>1300000</v>
+      </c>
+      <c r="E34" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F34" t="str">
+        <v>top-up</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV, RRN907219988802</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2025-03-14 19:36:20</v>
+      </c>
+      <c r="D35">
+        <v>1700</v>
+      </c>
+      <c r="E35" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F35" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Оплата на сумму 16,000.00 ПК98603501******8858 YATT ADILOV FATXULLA</v>
+      </c>
+      <c r="C36" t="str">
+        <v>2025-03-14 17:12:06</v>
+      </c>
+      <c r="D36">
+        <v>16000</v>
+      </c>
+      <c r="E36" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Оплата на сумму 4,000.00 ПК98603501******8858 YATT ADILOV FATXULLA</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2025-03-14 17:12:06</v>
+      </c>
+      <c r="D37">
+        <v>4000</v>
+      </c>
+      <c r="E37" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Оплата на сумму 1,000,000.00 ПК98603501******8858 МФО PAYME OPLATA</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2025-03-17 18:51:23</v>
+      </c>
+      <c r="D38">
+        <v>1000000</v>
+      </c>
+      <c r="E38" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Оплата на сумму 48,000.00 ПК98603501******8858 YandexGOTaxi UB OPLATA</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2025-03-17 18:51:23</v>
+      </c>
+      <c r="D39">
+        <v>48000</v>
+      </c>
+      <c r="E39" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Оплата на сумму 15,500.00 ПК98603501******8858 YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2025-03-16 18:25:55</v>
+      </c>
+      <c r="D40">
+        <v>15500</v>
+      </c>
+      <c r="E40" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Оплата на сумму 200,000.00 ПК98603501******8858 ANORBANK HUMO BPC</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2025-03-16 18:44:32</v>
+      </c>
+      <c r="D41">
+        <v>200000</v>
+      </c>
+      <c r="E41" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Оплата на сумму 100,000.00 ПК98603501******8858 ANORBANK HUMO BPC, RRN 507310582196235</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2025-03-15 17:17:50</v>
+      </c>
+      <c r="D42">
+        <v>100000</v>
+      </c>
+      <c r="E42" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Межбанковский расчет</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Оплата на сумму 64,000.00 ПК 98603501******8858 МФО PAYME OPLATA, RRN507209537732235</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2025-03-16 22:54:12</v>
+      </c>
+      <c r="D43">
+        <v>64000</v>
+      </c>
+      <c r="E43" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F43" t="str">
+        <v>PAYME</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Оплата на сумму 10,000.00 ПК 98603501******8858 МФО PAYME OPLATA, RRN507607653210235</v>
+      </c>
+      <c r="C44" t="str">
+        <v>2025-03-17 21:43:04</v>
+      </c>
+      <c r="D44">
+        <v>10000</v>
+      </c>
+      <c r="E44" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F44" t="str">
+        <v>PAYME</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Оплата на сумму 115,000.00 ПК 98603501******8858 МФО PAYME OPLATA, RRN507309179619235</v>
+      </c>
+      <c r="C45" t="str">
+        <v>2025-03-16 22:54:20</v>
+      </c>
+      <c r="D45">
+        <v>115000</v>
+      </c>
+      <c r="E45" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F45" t="str">
+        <v>PAYME</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Оплата на сумму 207,680.00 ПК 98603501******8858 МФО TBC KONVERSIYA,RRN 507409124382</v>
+      </c>
+      <c r="C46" t="str">
+        <v>2025-03-15 17:28:59</v>
+      </c>
+      <c r="D46">
+        <v>207680</v>
+      </c>
+      <c r="E46" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Межбанковский расчет</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Оплата на сумму 79,110.00 ПК98603501******8858 IP OOO ANGLESEY FOOD, RRN507309699860298</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2025-03-18 19:30:52</v>
+      </c>
+      <c r="D47">
+        <v>79110</v>
+      </c>
+      <c r="E47" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Межбанковский расчет</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Оплата на сумму 151,500.00 ПК 98603501******8858 МФО 01180, RRN507708192799</v>
+      </c>
+      <c r="C48" t="str">
+        <v>2025-03-18 18:17:17</v>
+      </c>
+      <c r="D48">
+        <v>151500</v>
+      </c>
+      <c r="E48" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Межбанковский расчет</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Оплата на сумму 10,000.00 ПК98603501******8858 YATT ADILOV FATXULLA, RRN507609290861</v>
+      </c>
+      <c r="C49" t="str">
+        <v>2025-03-18 11:42:59</v>
+      </c>
+      <c r="D49">
+        <v>10000</v>
+      </c>
+      <c r="E49" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Межбанковский расчет</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Оплата на сумму 22,000.00 ПК98603501******8858 EZOZAXONBUSINESS MCHJ, RRN507609168577</v>
+      </c>
+      <c r="C50" t="str">
+        <v>2025-03-18 11:39:08</v>
+      </c>
+      <c r="D50">
+        <v>22000</v>
+      </c>
+      <c r="E50" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Межбанковский расчет</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Оплата на сумму 95,000.00 ПК98603501******8858 OOO MUAZ FAMILY, RRN 507609118462</v>
+      </c>
+      <c r="C51" t="str">
+        <v>2025-03-18 18:19:07</v>
+      </c>
+      <c r="D51">
+        <v>95000</v>
+      </c>
+      <c r="E51" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Межбанковский расчет</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Оплата на сумму 28,000.00 ПК98603501******8858 YandexGO Taxi UB OPLATA, RRN507705690090</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2025-03-18 18:23:48</v>
+      </c>
+      <c r="D52">
+        <v>28000</v>
+      </c>
+      <c r="E52" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Межбанковский расчет</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Оплата на сумму 780,000.00 ПК 98603501******8858 МФО PAYME OPLATA, RRN507804106171</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2025-03-19 18:20:06</v>
+      </c>
+      <c r="D53">
+        <v>780000</v>
+      </c>
+      <c r="E53" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F53" t="str">
+        <v>PAYME</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Оплата на сумму 5,050.00 ПК 98603501******8858 МФО 01180, RRN 507805230354</v>
+      </c>
+      <c r="C54" t="str">
+        <v>2025-03-19 18:17:45</v>
+      </c>
+      <c r="D54">
+        <v>5050</v>
+      </c>
+      <c r="E54" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F54" t="str">
+        <v>PAYME</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Оплата на сумму 222,200.00 ПК 98603501******8858 МФО 01180, RRN507805959344</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2025-03-19 18:25:18</v>
+      </c>
+      <c r="D55">
+        <v>222200</v>
+      </c>
+      <c r="E55" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F55" t="str">
+        <v>PAYME</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Оплата на сумму 15,000.00 ПК 98603501******8858 alifmobiuzpayment to prov, RRN 507806645697</v>
+      </c>
+      <c r="C56" t="str">
+        <v>2025-03-19 20:07:10</v>
+      </c>
+      <c r="D56">
+        <v>15000</v>
+      </c>
+      <c r="E56" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Межбанковский расчет</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B57" t="str">
+        <v>YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2025-03-19 18:45:21</v>
+      </c>
+      <c r="D57">
+        <v>70000</v>
+      </c>
+      <c r="E57" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Transportation</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B58" t="str">
+        <v>YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C58" t="str">
+        <v>2025-03-19 18:46:07</v>
+      </c>
+      <c r="D58">
+        <v>7500</v>
+      </c>
+      <c r="E58" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Transportation</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B59" t="str">
+        <v>YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C59" t="str">
+        <v>2025-03-19 20:07:45</v>
+      </c>
+      <c r="D59">
+        <v>61000</v>
+      </c>
+      <c r="E59" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Transportation</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B60" t="str">
+        <v>YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2025-03-19 18:46:08</v>
+      </c>
+      <c r="D60">
+        <v>10500</v>
+      </c>
+      <c r="E60" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Transportation</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B61" t="str">
+        <v>YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2025-03-19 12:48:56</v>
+      </c>
+      <c r="D61">
+        <v>44440</v>
+      </c>
+      <c r="E61" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Transportation</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B62" t="str">
+        <v>PAYME OPLATA</v>
+      </c>
+      <c r="C62" t="str">
+        <v>2025-03-19 19:58:18</v>
+      </c>
+      <c r="D62">
+        <v>1200000</v>
+      </c>
+      <c r="E62" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Online Payment</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B63" t="str">
+        <v>alifnasiyauz rassrochka</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2025-03-20 17:50:21</v>
+      </c>
+      <c r="D63">
+        <v>333334</v>
+      </c>
+      <c r="E63" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Financial Services</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B64" t="str">
+        <v>YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2025-03-20 17:54:38</v>
+      </c>
+      <c r="D64">
+        <v>9000</v>
+      </c>
+      <c r="E64" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Transportation</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B65" t="str">
+        <v>YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C65" t="str">
+        <v>2025-03-20 17:54:37</v>
+      </c>
+      <c r="D65">
+        <v>12500</v>
+      </c>
+      <c r="E65" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Transportation</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B66" t="str">
+        <v>YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2025-03-20 20:29:52</v>
+      </c>
+      <c r="D66">
+        <v>22500</v>
+      </c>
+      <c r="E66" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Transportation</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B67" t="str">
+        <v>XALQARO VESTMINSTER OPLATA</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2025-03-20 17:59:13</v>
+      </c>
+      <c r="D67">
+        <v>8000000</v>
+      </c>
+      <c r="E67" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Financial Services</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B68" t="str">
+        <v>TRADING BM GROUP</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2025-03-20 17:53:52</v>
+      </c>
+      <c r="D68">
+        <v>15000</v>
+      </c>
+      <c r="E68" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Business</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B69" t="str">
+        <v>alifmobiuzpayment to prov</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2025-03-20 11:59:02</v>
+      </c>
+      <c r="D69">
+        <v>40000</v>
+      </c>
+      <c r="E69" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Online Payment</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Оплата на сумму 1,640,000.00 ПК 98603501******8858XALQARO VESTMINSTER OPLATA</v>
+      </c>
+      <c r="C70" t="str">
+        <v>2025-03-20 17:59:12</v>
+      </c>
+      <c r="D70">
+        <v>1640000</v>
+      </c>
+      <c r="E70" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Оплата на сумму 222,200.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2025-03-20 20:22:52</v>
+      </c>
+      <c r="D71">
+        <v>222200</v>
+      </c>
+      <c r="E71" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Транзитный счет для переводов сHumo на Humo в приложенииPayme</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Оплата на сумму 20,000.00 ПК 98603501******8858 МФО PAYME OPLATA</v>
+      </c>
+      <c r="C72" t="str">
+        <v>2025-03-24 19:52:00</v>
+      </c>
+      <c r="D72">
+        <v>20000</v>
+      </c>
+      <c r="E72" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F72" t="str">
+        <v>PAYME</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Оплата на сумму 36,000.00 ПК98603501******8858 YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2025-03-24 20:03:04</v>
+      </c>
+      <c r="D73">
+        <v>36000</v>
+      </c>
+      <c r="E73" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Оплата на сумму 45,000.00 ПК98603501******8858 YATT ADILOV FATXULLA</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2025-03-23 18:04:41</v>
+      </c>
+      <c r="D74">
+        <v>45000</v>
+      </c>
+      <c r="E74" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Оплата на сумму 5,050.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C75" t="str">
+        <v>2025-03-24 12:01:09</v>
+      </c>
+      <c r="D75">
+        <v>5050</v>
+      </c>
+      <c r="E75" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Транзитный счет для переводов сHumo на Humo в приложенииPayme</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Оплата на сумму 151,500.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C76" t="str">
+        <v>2025-03-23 18:02:55</v>
+      </c>
+      <c r="D76">
+        <v>151500</v>
+      </c>
+      <c r="E76" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Транзитный счет для переводов сHumo на Humo в приложенииPayme</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Оплата на сумму 108,070.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C77" t="str">
+        <v>2025-03-24 19:56:23</v>
+      </c>
+      <c r="D77">
+        <v>108070</v>
+      </c>
+      <c r="E77" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Транзитный счет для переводов сHumo на Uzcard в приложенииPayme</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Оплата на сумму 149,480.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C78" t="str">
+        <v>2025-03-24 19:56:23</v>
+      </c>
+      <c r="D78">
+        <v>149480</v>
+      </c>
+      <c r="E78" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Транзитный счет для переводов сHumo на Uzcard в приложенииPayme</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Оплата на сумму 200,000.00 ПК98603501******8858 ANORBANK HUMO BPC</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2025-03-24 18:00:24</v>
+      </c>
+      <c r="D79">
+        <v>200000</v>
+      </c>
+      <c r="E79" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>expense</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Расход наличными 202,000.00 сум ПК98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2025-03-24 18:00:24</v>
+      </c>
+      <c r="D80">
+        <v>202000</v>
+      </c>
+      <c r="E80" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Оплата на сумму 10,500.00 ПК98603501******8858 YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C81" t="str">
+        <v>2025-03-24 12:29:48</v>
+      </c>
+      <c r="D81">
+        <v>10500</v>
+      </c>
+      <c r="E81" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Оплата на сумму 15,000.00 ПК98603501******8858 YATT ADILOV FATXULLA</v>
+      </c>
+      <c r="C82" t="str">
+        <v>2025-03-24 12:24:26</v>
+      </c>
+      <c r="D82">
+        <v>15000</v>
+      </c>
+      <c r="E82" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Оплата на сумму 5,050.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2025-03-23 18:01:28</v>
+      </c>
+      <c r="D83">
+        <v>5050</v>
+      </c>
+      <c r="E83" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Транзитный счет для переводов сHumo на Uzcard в приложенииPayme</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Оплата на сумму 10,100.00 ПК 98603501******8858 МФО 01180, RRN 5081129294362081600060000000280601180115000UZS</v>
+      </c>
+      <c r="C84" t="str">
+        <v>2025-03-23 18:06:22</v>
+      </c>
+      <c r="D84">
+        <v>10100</v>
+      </c>
+      <c r="E84" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F84" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Оплата на сумму 11,500.00 ПК 98603501******8858 SP OOO HAVAS FOOD, RRN 50800973613810511000900001180400011800200000UZS</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2025-03-22 16:48:08</v>
+      </c>
+      <c r="D85">
+        <v>11500</v>
+      </c>
+      <c r="E85" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F85" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>deposit</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Пополнение на сумму 200,000.00 ПК 98603501******8858 ANORBANK BPC HUMO, RRN 5081113317032081600060000000280601180135000UZS</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2025-03-23 18:04:38</v>
+      </c>
+      <c r="D86">
+        <v>200000</v>
+      </c>
+      <c r="E86" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F86" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Оплата на сумму 13,500.00 ПК 98603501******8858 YandexGOTaxi UB OPLATA, RRN 508406082505</v>
+      </c>
+      <c r="C87" t="str">
+        <v>2025-03-25 17:23:13</v>
+      </c>
+      <c r="D87">
+        <v>13500</v>
+      </c>
+      <c r="E87" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F87" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Оплата на сумму 222,200.00 ПК 98603501******8858 МФО 01180, RRN 5084053893922081600060000000280601180380000UZS</v>
+      </c>
+      <c r="C88" t="str">
+        <v>2025-03-25 17:14:49</v>
+      </c>
+      <c r="D88">
+        <v>222200</v>
+      </c>
+      <c r="E88" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F88" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Оплата на сумму 38,000.00 ПК 98603501******8858 YandexGO Taxi UB OPLATA, RRN 5083112858782081600060000000280601180100000UZS</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2025-03-25 11:05:32</v>
+      </c>
+      <c r="D89">
+        <v>38000</v>
+      </c>
+      <c r="E89" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F89" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Оплата на сумму 10,000.00 ПК 98603501******8858 YATT ADILOV FATXULLA, RRN 5083166946712081600060000000280601180135000UZS</v>
+      </c>
+      <c r="C90" t="str">
+        <v>2025-03-25 17:23:38</v>
+      </c>
+      <c r="D90">
+        <v>10000</v>
+      </c>
+      <c r="E90" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F90" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Оплата на сумму 78,000.00 ПК 98603501******8858 YATT ADILOV FATXULLA, RRN 508409579320</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2025-03-26 12:50:10</v>
+      </c>
+      <c r="D91">
+        <v>78000</v>
+      </c>
+      <c r="E91" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F91" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Оплата на сумму 272,700.00 ПК 98603501******8858 МФО 01180, RRN 5085052800082081600060000000280601180150000UZS</v>
+      </c>
+      <c r="C92" t="str">
+        <v>2025-03-26 17:10:09</v>
+      </c>
+      <c r="D92">
+        <v>272700</v>
+      </c>
+      <c r="E92" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F92" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Оплата на сумму 15,000.00 ПК 98603501******8858 alifmobiuz payment to prov, RRN 508507224169235100005049242754570118012000000UZS</v>
+      </c>
+      <c r="C93" t="str">
+        <v>2025-03-26 18:49:32</v>
+      </c>
+      <c r="D93">
+        <v>15000</v>
+      </c>
+      <c r="E93" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F93" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Оплата на сумму 80,000.00 ПК 98603501******8858 alifmobiuz payment to prov, RRN 508409796426</v>
+      </c>
+      <c r="C94" t="str">
+        <v>2025-03-26 17:09:58</v>
+      </c>
+      <c r="D94">
+        <v>80000</v>
+      </c>
+      <c r="E94" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F94" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Оплата на сумму 16,500.00 ПК 98603501******8858 YandexGO Taxi UB OPLATA, RRN 5085017342472081600060000000280601180800000UZS</v>
+      </c>
+      <c r="C95" t="str">
+        <v>2025-03-26 17:27:53</v>
+      </c>
+      <c r="D95">
+        <v>16500</v>
+      </c>
+      <c r="E95" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F95" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Оплата на сумму 1,200,000.00 ПК 98603501******8858 МФО PAYME OPLATA, RRN 5085053674532081600060000000280601180165000UZS</v>
+      </c>
+      <c r="C96" t="str">
+        <v>2025-03-26 10:21:12</v>
+      </c>
+      <c r="D96">
+        <v>1200000</v>
+      </c>
+      <c r="E96" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F96" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B97" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 48,000.00</v>
+      </c>
+      <c r="C97" t="str">
+        <v>2025-03-26 12:50:10</v>
+      </c>
+      <c r="D97">
+        <v>48000</v>
+      </c>
+      <c r="E97" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B98" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 173,085.00</v>
+      </c>
+      <c r="C98" t="str">
+        <v>2025-03-27 12:40:49</v>
+      </c>
+      <c r="D98">
+        <v>173085</v>
+      </c>
+      <c r="E98" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B99" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 281,726.00</v>
+      </c>
+      <c r="C99" t="str">
+        <v>2025-03-27 12:38:30</v>
+      </c>
+      <c r="D99">
+        <v>281726</v>
+      </c>
+      <c r="E99" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>expense</v>
+      </c>
+      <c r="B100" t="str">
+        <v>HUMO Межбанковский расчет - Расход наличными 101,000.00 сум</v>
+      </c>
+      <c r="C100" t="str">
+        <v>2025-03-27 12:55:32</v>
+      </c>
+      <c r="D100">
+        <v>101000</v>
+      </c>
+      <c r="E100" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B101" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 32,500.00</v>
+      </c>
+      <c r="C101" t="str">
+        <v>2025-03-29 19:04:56</v>
+      </c>
+      <c r="D101">
+        <v>32500</v>
+      </c>
+      <c r="E101" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B102" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 18,500.00</v>
+      </c>
+      <c r="C102" t="str">
+        <v>2025-03-29 19:06:07</v>
+      </c>
+      <c r="D102">
+        <v>18500</v>
+      </c>
+      <c r="E102" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B103" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 1,700.00</v>
+      </c>
+      <c r="C103" t="str">
+        <v>2025-03-29 18:59:37</v>
+      </c>
+      <c r="D103">
+        <v>1700</v>
+      </c>
+      <c r="E103" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B104" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 54,000.00</v>
+      </c>
+      <c r="C104" t="str">
+        <v>2025-03-28 17:27:22</v>
+      </c>
+      <c r="D104">
+        <v>54000</v>
+      </c>
+      <c r="E104" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B105" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 22,500.00</v>
+      </c>
+      <c r="C105" t="str">
+        <v>2025-03-30 20:36:45</v>
+      </c>
+      <c r="D105">
+        <v>22500</v>
+      </c>
+      <c r="E105" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B106" t="str">
+        <v>HUMO - Оплата на сумму 80,800.00</v>
+      </c>
+      <c r="C106" t="str">
+        <v>2025-03-30 19:10:19</v>
+      </c>
+      <c r="D106">
+        <v>80800</v>
+      </c>
+      <c r="E106" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Транзитный счет для переводов с Humo на Humo в приложении Payme</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B107" t="str">
+        <v>HUMO - Оплата на сумму 91,910.00</v>
+      </c>
+      <c r="C107" t="str">
+        <v>2025-03-30 19:15:59</v>
+      </c>
+      <c r="D107">
+        <v>91910</v>
+      </c>
+      <c r="E107" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Транзитный счет для переводов с Humo на Uzcard в приложении Payme</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B108" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 26,500.00</v>
+      </c>
+      <c r="C108" t="str">
+        <v>2025-03-30 20:37:09</v>
+      </c>
+      <c r="D108">
+        <v>26500</v>
+      </c>
+      <c r="E108" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B109" t="str">
+        <v>HUMO - Оплата на сумму 2,000.00</v>
+      </c>
+      <c r="C109" t="str">
+        <v>2025-03-29 18:29:32</v>
+      </c>
+      <c r="D109">
+        <v>2000</v>
+      </c>
+      <c r="E109" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F109" t="str">
+        <v>PAYME</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C110" t="str">
+        <v>2025-03-28 17:22:25</v>
+      </c>
+      <c r="D110">
+        <v>1700</v>
+      </c>
+      <c r="E110" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F110" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Оплата на сумму 15,150.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C111" t="str">
+        <v>2025-03-28 17:17:02</v>
+      </c>
+      <c r="D111">
+        <v>15150</v>
+      </c>
+      <c r="E111" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F111" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Оплата на сумму 17,000.00 ПК98603501******8858 YATT ADILOV FATXULLA</v>
+      </c>
+      <c r="C112" t="str">
+        <v>2025-03-30 19:39:09</v>
+      </c>
+      <c r="D112">
+        <v>17000</v>
+      </c>
+      <c r="E112" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F112" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Оплата на сумму 3,800,000.00 ПК 98603501******8858 МФО TBC P2P S HUMO NAUZCARD</v>
+      </c>
+      <c r="C113" t="str">
+        <v>2025-03-30 19:42:12</v>
+      </c>
+      <c r="D113">
+        <v>3800000</v>
+      </c>
+      <c r="E113" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F113" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Оплата на сумму 17,000.00 ПК98603501******8858 YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C114" t="str">
+        <v>2025-03-28 12:43:57</v>
+      </c>
+      <c r="D114">
+        <v>17000</v>
+      </c>
+      <c r="E114" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F114" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Оплата на сумму 100,000.00 ПК 98603501******8858 alifmobiuzh2u</v>
+      </c>
+      <c r="C115" t="str">
+        <v>2025-03-29 19:02:47</v>
+      </c>
+      <c r="D115">
+        <v>100000</v>
+      </c>
+      <c r="E115" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F115" t="str">
+        <v>payment</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Оплата на сумму 8,990.00 ПК98603501******8858 IP OOO ANGLESEY FOOD</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2025-03-28 15:16:09</v>
+      </c>
+      <c r="D116">
+        <v>8990</v>
+      </c>
+      <c r="E116" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F116" t="str">
+        <v>food</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Оплата на сумму 78,800.00 ПК98603501******8858 OOO TARGET PHARM</v>
+      </c>
+      <c r="C117" t="str">
+        <v>2025-03-29 18:08:47</v>
+      </c>
+      <c r="D117">
+        <v>78800</v>
+      </c>
+      <c r="E117" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F117" t="str">
+        <v>pharmacy</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Оплата на сумму 80,000.00 ПК 98603501******8858 МФО PAYME OPLATA</v>
+      </c>
+      <c r="C118" t="str">
+        <v>2025-03-28 18:48:03</v>
+      </c>
+      <c r="D118">
+        <v>80000</v>
+      </c>
+      <c r="E118" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F118" t="str">
+        <v>payment</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C119" t="str">
+        <v>2025-03-28 18:48:16</v>
+      </c>
+      <c r="D119">
+        <v>1700</v>
+      </c>
+      <c r="E119" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F119" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C120" t="str">
+        <v>2025-03-28 13:57:01</v>
+      </c>
+      <c r="D120">
+        <v>1700</v>
+      </c>
+      <c r="E120" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F120" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Пополнение на сумму 58,308.00 ПК 98603501******8858 МФО TBC P2P VISA NAHUMO TBC</v>
+      </c>
+      <c r="C121" t="str">
+        <v>2025-03-30 19:38:11</v>
+      </c>
+      <c r="D121">
+        <v>58308</v>
+      </c>
+      <c r="E121" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F121" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Оплата на сумму 15,000.00 ПК98603501******8858 alifmobiuz payment to prov</v>
+      </c>
+      <c r="C122" t="str">
+        <v>2025-04-01 19:30:38</v>
+      </c>
+      <c r="D122">
+        <v>15000</v>
+      </c>
+      <c r="E122" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F122" t="str">
+        <v>payment</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Оплата на сумму 18,000.00 ПК98603501******8858 YATT ADILOV FATXULLA</v>
+      </c>
+      <c r="C123" t="str">
+        <v>2025-04-01 17:56:29</v>
+      </c>
+      <c r="D123">
+        <v>18000</v>
+      </c>
+      <c r="E123" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Оплата на сумму 323,750.00 ПК 98603501******8858 МФО TBC KONVERSIYA</v>
+      </c>
+      <c r="C124" t="str">
+        <v>2025-04-01 22:04:59</v>
+      </c>
+      <c r="D124">
+        <v>323750</v>
+      </c>
+      <c r="E124" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Транзитный счет для конвертации</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Оплата на сумму 39,470.00 ПК 98603501******8858 МФО PAYME OPLATA</v>
+      </c>
+      <c r="C125" t="str">
+        <v>2025-04-01 13:50:07</v>
+      </c>
+      <c r="D125">
+        <v>39470</v>
+      </c>
+      <c r="E125" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F125" t="str">
+        <v>PAYME AJ</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C126" t="str">
+        <v>2025-04-01 09:33:15</v>
+      </c>
+      <c r="D126">
+        <v>1700</v>
+      </c>
+      <c r="E126" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F126" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C127" t="str">
+        <v>2025-04-01 19:18:31</v>
+      </c>
+      <c r="D127">
+        <v>1700</v>
+      </c>
+      <c r="E127" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>expense</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Расход наличными 20,200.00 сум ПК98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C128" t="str">
+        <v>2025-04-01 19:47:01</v>
+      </c>
+      <c r="D128">
+        <v>20200</v>
+      </c>
+      <c r="E128" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F128" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Оплата на сумму 18,500.00 ПК98603501******8858 YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C129" t="str">
+        <v>2025-04-01 22:12:25</v>
+      </c>
+      <c r="D129">
+        <v>18500</v>
+      </c>
+      <c r="E129" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F129" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Оплата на сумму 59,590.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C130" t="str">
+        <v>2025-04-01 18:21:31</v>
+      </c>
+      <c r="D130">
+        <v>59590</v>
+      </c>
+      <c r="E130" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F130" t="str">
+        <v>Транзитный счет для переводов с Humo на Humo в приложении Payme</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Оплата на сумму 55,000.00 ПК 98603501******8858 MChJ MAKFOOD SERVIS</v>
+      </c>
+      <c r="C131" t="str">
+        <v>2025-04-01 20:11:07</v>
+      </c>
+      <c r="D131">
+        <v>55000</v>
+      </c>
+      <c r="E131" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F131" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C132" t="str">
+        <v>2025-04-02 09:37:26</v>
+      </c>
+      <c r="D132">
+        <v>1700</v>
+      </c>
+      <c r="E132" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F132" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Оплата на сумму 1,000.00 ПК98603501******8858 PAYME KOMMUNAL TULOV</v>
+      </c>
+      <c r="C133" t="str">
+        <v>2025-04-02 18:37:49</v>
+      </c>
+      <c r="D133">
+        <v>1000</v>
+      </c>
+      <c r="E133" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Оплата на сумму 45,551.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C134" t="str">
+        <v>2025-04-02 18:19:37</v>
+      </c>
+      <c r="D134">
+        <v>45551</v>
+      </c>
+      <c r="E134" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F134" t="str">
+        <v>Транзитный счет для переводов с Humo на Humo в приложении Payme</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Оплата на сумму 1,700.00 ПК 98603501******8858 ATTOTRANSPORT TOLOV</v>
+      </c>
+      <c r="C135" t="str">
+        <v>2025-04-03 14:05:11</v>
+      </c>
+      <c r="D135">
+        <v>1700</v>
+      </c>
+      <c r="E135" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F135" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Оплата на сумму 1,700.00 ПК 98603501******8858 ATTOTRANSPORT TOLOV</v>
+      </c>
+      <c r="C136" t="str">
+        <v>2025-04-03 11:51:00</v>
+      </c>
+      <c r="D136">
+        <v>1700</v>
+      </c>
+      <c r="E136" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F136" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C137" t="str">
+        <v>2025-04-03 13:21:07</v>
+      </c>
+      <c r="D137">
+        <v>1700</v>
+      </c>
+      <c r="E137" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F137" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Оплата на сумму 52,000.00 ПК 98603501******8858 МФО PAYME OPLATA</v>
+      </c>
+      <c r="C138" t="str">
+        <v>2025-04-03 21:29:00</v>
+      </c>
+      <c r="D138">
+        <v>52000</v>
+      </c>
+      <c r="E138" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F138" t="str">
+        <v>payment</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C139" t="str">
+        <v>2025-04-04 20:42:28</v>
+      </c>
+      <c r="D139">
+        <v>1700</v>
+      </c>
+      <c r="E139" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F139" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C140" t="str">
+        <v>2025-04-04 13:56:51</v>
+      </c>
+      <c r="D140">
+        <v>1700</v>
+      </c>
+      <c r="E140" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F140" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C141" t="str">
+        <v>2025-04-04 20:28:46</v>
+      </c>
+      <c r="D141">
+        <v>1700</v>
+      </c>
+      <c r="E141" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F141" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Оплата на сумму 38,500.00 ПК98603501******8858 YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C142" t="str">
+        <v>2025-04-04 18:44:54</v>
+      </c>
+      <c r="D142">
+        <v>38500</v>
+      </c>
+      <c r="E142" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F142" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Оплата на сумму 55,000.00 ПК98603501******8858 alifmobiuz payment to prov</v>
+      </c>
+      <c r="C143" t="str">
+        <v>2025-04-04 18:44:06</v>
+      </c>
+      <c r="D143">
+        <v>55000</v>
+      </c>
+      <c r="E143" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F143" t="str">
+        <v>payment</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Оплата на сумму 35,500.00 ПК98603501******8858 YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C144" t="str">
+        <v>2025-04-04 14:03:09</v>
+      </c>
+      <c r="D144">
+        <v>35500</v>
+      </c>
+      <c r="E144" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F144" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Оплата на сумму 10,000.00 ПК 98603501******8858 МФО PAYME OPLATA</v>
+      </c>
+      <c r="C145" t="str">
+        <v>2025-04-04 13:17:02</v>
+      </c>
+      <c r="D145">
+        <v>10000</v>
+      </c>
+      <c r="E145" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F145" t="str">
+        <v>payment</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Оплата на сумму 10,000.00 ПК 98603501******8858 МФО PAYME OPLATA</v>
+      </c>
+      <c r="C146" t="str">
+        <v>2025-04-07 18:53:19</v>
+      </c>
+      <c r="D146">
+        <v>10000</v>
+      </c>
+      <c r="E146" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F146" t="str">
+        <v>payment</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B147" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 6,000.00 ПК98603501******8858 alifmobiuz payment to prov</v>
+      </c>
+      <c r="C147" t="str">
+        <v>2025-04-07 18:47:27</v>
+      </c>
+      <c r="D147">
+        <v>6000</v>
+      </c>
+      <c r="E147" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F147" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B148" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 52,000.00 ПК 98603501******8858 МФО PAYME OPLATA</v>
+      </c>
+      <c r="C148" t="str">
+        <v>2025-04-06 22:22:57</v>
+      </c>
+      <c r="D148">
+        <v>52000</v>
+      </c>
+      <c r="E148" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F148" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B149" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 47,500.00 ПК98603501******8858 YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C149" t="str">
+        <v>2025-04-06 22:16:01</v>
+      </c>
+      <c r="D149">
+        <v>47500</v>
+      </c>
+      <c r="E149" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F149" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B150" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 101,000.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C150" t="str">
+        <v>2025-04-07 18:54:22</v>
+      </c>
+      <c r="D150">
+        <v>101000</v>
+      </c>
+      <c r="E150" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F150" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B151" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 37,370.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C151" t="str">
+        <v>2025-04-06 11:38:45</v>
+      </c>
+      <c r="D151">
+        <v>37370</v>
+      </c>
+      <c r="E151" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F151" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B152" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C152" t="str">
+        <v>2025-04-05 17:14:32</v>
+      </c>
+      <c r="D152">
+        <v>1700</v>
+      </c>
+      <c r="E152" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F152" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B153" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 242,400.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C153" t="str">
+        <v>2025-04-07 18:52:48</v>
+      </c>
+      <c r="D153">
+        <v>242400</v>
+      </c>
+      <c r="E153" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F153" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B154" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 11,000.00 ПК98603501******8858 OCTOBANK YANDEX DELIVERY O</v>
+      </c>
+      <c r="C154" t="str">
+        <v>2025-04-07 18:54:00</v>
+      </c>
+      <c r="D154">
+        <v>11000</v>
+      </c>
+      <c r="E154" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F154" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B155" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 41,500.00 ПК98603501******8858 YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C155" t="str">
+        <v>2025-04-07 18:43:43</v>
+      </c>
+      <c r="D155">
+        <v>41500</v>
+      </c>
+      <c r="E155" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F155" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B156" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C156" t="str">
+        <v>2025-04-07 18:52:27</v>
+      </c>
+      <c r="D156">
+        <v>1700</v>
+      </c>
+      <c r="E156" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F156" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B157" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 7,070.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C157" t="str">
+        <v>2025-04-07 21:33:49</v>
+      </c>
+      <c r="D157">
+        <v>7070</v>
+      </c>
+      <c r="E157" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F157" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B158" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 52,520.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C158" t="str">
+        <v>2025-04-07 21:33:50</v>
+      </c>
+      <c r="D158">
+        <v>52520</v>
+      </c>
+      <c r="E158" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F158" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B159" t="str">
+        <v>HUMO Межбанковский расчет - Оплата на сумму 27,000.00 ПК 98603501******8858 МФО PAYME OPLATA</v>
+      </c>
+      <c r="C159" t="str">
+        <v>2025-04-06 22:49:47</v>
+      </c>
+      <c r="D159">
+        <v>27000</v>
+      </c>
+      <c r="E159" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F159" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Оплата на сумму 12,000.00 ПК 98603501******8858 YATTADILOV FATXULLA</v>
+      </c>
+      <c r="C160" t="str">
+        <v>2025-04-07 21:09:15</v>
+      </c>
+      <c r="D160">
+        <v>12000</v>
+      </c>
+      <c r="E160" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F160" t="str">
+        <v>Счета учета обязательств</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>top-up</v>
+      </c>
+      <c r="B161" t="str">
+        <v>Пополнение на сумму 58,050.00 ПК 98603501******8858 МФО TBC P2P VISA NAHUMO TBC</v>
+      </c>
+      <c r="C161" t="str">
+        <v>2025-04-07 12:54:48</v>
+      </c>
+      <c r="D161">
+        <v>58050</v>
+      </c>
+      <c r="E161" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F161" t="str">
+        <v>Транзитный счет для конвертации с VISA на Humo</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>cancellation</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Отмена оплата на сумму 11,000.00 ПК98603501******8858 OCTOBANK YANDEX DELIVERY O</v>
+      </c>
+      <c r="C162" t="str">
+        <v>2025-04-07 18:24:17</v>
+      </c>
+      <c r="D162">
+        <v>11000</v>
+      </c>
+      <c r="E162" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F162" t="str">
+        <v>К получению из других банков по осуществленным платежам с HUMO</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Оплата на сумму 32,000.00 ПК98603501******8858 YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C163" t="str">
+        <v>2025-04-08 12:06:23</v>
+      </c>
+      <c r="D163">
+        <v>32000</v>
+      </c>
+      <c r="E163" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F163" t="str">
+        <v>Счета учета обязательств HUMO по безналичным операциям</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Оплата на сумму 36,000.00 ПК98603501******8858 YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C164" t="str">
+        <v>2025-04-08 12:08:53</v>
+      </c>
+      <c r="D164">
+        <v>36000</v>
+      </c>
+      <c r="E164" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F164" t="str">
+        <v>Счета учета обязательств HUMO по безналичным операциям</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C165" t="str">
+        <v>2025-04-08 18:21:23</v>
+      </c>
+      <c r="D165">
+        <v>1700</v>
+      </c>
+      <c r="E165" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F165" t="str">
+        <v>Счета учета обязательств HUMO по безналичным операциям</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B166" t="str">
+        <v>Оплата на сумму 1,700.00 ПК98603501******8858 ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C166" t="str">
+        <v>2025-04-08 18:21:23</v>
+      </c>
+      <c r="D166">
+        <v>1700</v>
+      </c>
+      <c r="E166" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F166" t="str">
+        <v>Счета учета обязательств HUMO по безналичным операциям</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Оплата на сумму 6,000.00 ПК 98603501******8858 МФО PAYME OPLATA</v>
+      </c>
+      <c r="C167" t="str">
+        <v>2025-04-08 12:04:33</v>
+      </c>
+      <c r="D167">
+        <v>6000</v>
+      </c>
+      <c r="E167" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F167" t="str">
+        <v>PAYME AJ</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>top-up</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Пополнение на сумму 200,000.00 ПК 98603501******8858 МФО TBC P2P SUZCARD NA HUMO TB</v>
+      </c>
+      <c r="C168" t="str">
+        <v>2025-04-08 12:06:19</v>
+      </c>
+      <c r="D168">
+        <v>200000</v>
+      </c>
+      <c r="E168" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F168" t="str">
+        <v>Транзитный счет для перевода с Uzcard на карту TBC Humo</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>peer-to-peer</v>
+      </c>
+      <c r="B169" t="str">
+        <v>П2П на сумму 52,000.00 ПК 98603501******8858 01180</v>
+      </c>
+      <c r="C169" t="str">
+        <v>2025-04-08 20:08:12</v>
+      </c>
+      <c r="D169">
+        <v>52000</v>
+      </c>
+      <c r="E169" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F169" t="str">
+        <v>Транзитный счет для переводов с Humo на Humo в приложении Payme</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Оплата на сумму 7,070.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C170" t="str">
+        <v>2025-04-09 12:46:22</v>
+      </c>
+      <c r="D170">
+        <v>7070</v>
+      </c>
+      <c r="E170" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F170" t="str">
+        <v>Транзитный счет для переводов с Humo на Humo в приложении Payme</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Оплата на сумму 15,150.00 ПК 98603501******8858 МФО 01180</v>
+      </c>
+      <c r="C171" t="str">
+        <v>2025-04-09 13:06:38</v>
+      </c>
+      <c r="D171">
+        <v>15150</v>
+      </c>
+      <c r="E171" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F171" t="str">
+        <v>Транзитный счет для переводов с Humo на Uzcard в приложении Payme</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B172" t="str">
+        <v>ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C172" t="str">
+        <v>2025-04-09 13:19:37</v>
+      </c>
+      <c r="D172">
+        <v>1700</v>
+      </c>
+      <c r="E172" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F172" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B173" t="str">
+        <v>YandexGO Taxi UB OPLATA</v>
+      </c>
+      <c r="C173" t="str">
+        <v>2025-04-09 13:30:59</v>
+      </c>
+      <c r="D173">
+        <v>28500</v>
+      </c>
+      <c r="E173" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F173" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B174" t="str">
+        <v>ATTO TRANSPORT TOLOV</v>
+      </c>
+      <c r="C174" t="str">
+        <v>2025-04-09 17:10:59</v>
+      </c>
+      <c r="D174">
+        <v>1700</v>
+      </c>
+      <c r="E174" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F174" t="str">
+        <v>transportation</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>deposit</v>
+      </c>
+      <c r="B175" t="str">
+        <v>TBC P2P SUZCARD NA HUMO TB</v>
+      </c>
+      <c r="C175" t="str">
+        <v>2025-04-09 18:47:48</v>
+      </c>
+      <c r="D175">
+        <v>100000</v>
+      </c>
+      <c r="E175" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F175" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B176" t="str">
+        <v>PAYME OPLATA</v>
+      </c>
+      <c r="C176" t="str">
+        <v>2025-04-09 18:50:22</v>
+      </c>
+      <c r="D176">
+        <v>104000</v>
+      </c>
+      <c r="E176" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F176" t="str">
+        <v>payment</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>deposit</v>
+      </c>
+      <c r="B177" t="str">
+        <v>TBC P2P SUZCARD NA HUMO TB</v>
+      </c>
+      <c r="C177" t="str">
+        <v>2025-04-09 19:10:45</v>
+      </c>
+      <c r="D177">
+        <v>100000</v>
+      </c>
+      <c r="E177" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F177" t="str">
+        <v>transfer</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B178" t="str">
+        <v>PAYME OPLATA</v>
+      </c>
+      <c r="C178" t="str">
+        <v>2025-04-09 19:44:58</v>
+      </c>
+      <c r="D178">
+        <v>20000</v>
+      </c>
+      <c r="E178" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F178" t="str">
+        <v>payment</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>payment</v>
+      </c>
+      <c r="B179" t="str">
+        <v>PAYME OPLATA</v>
+      </c>
+      <c r="C179" t="str">
+        <v>2025-04-09 19:45:02</v>
+      </c>
+      <c r="D179">
+        <v>41410</v>
+      </c>
+      <c r="E179" t="str">
+        <v>UZS</v>
+      </c>
+      <c r="F179" t="str">
+        <v>payment</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F179"/>
   </ignoredErrors>
 </worksheet>
 </file>